--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_005/summary_statistics.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_005/summary_statistics.xlsx
@@ -585,55 +585,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02309236947791165</v>
+        <v>0.004943502824858757</v>
       </c>
       <c r="C3" t="n">
-        <v>109.711801833964</v>
+        <v>252.7935350920606</v>
       </c>
       <c r="D3" t="n">
-        <v>343.8385102229092</v>
+        <v>661.4045001997807</v>
       </c>
       <c r="E3" t="n">
-        <v>9.987030627540679e-07</v>
+        <v>1.192995365034988e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003867645413269953</v>
+        <v>0.0004793453966205842</v>
       </c>
       <c r="G3" t="n">
-        <v>2.921666666666667</v>
+        <v>3.04</v>
       </c>
       <c r="H3" t="n">
-        <v>1.803333333333333</v>
+        <v>2.135</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0148757803051247</v>
+        <v>-0.1903607380123191</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6373195721567169</v>
+        <v>0.610469003703091</v>
       </c>
       <c r="L3" t="n">
-        <v>1.514599673771582</v>
+        <v>1.264098763037655</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.9582060581168564</v>
+        <v>-1.343954478473469</v>
       </c>
       <c r="N3" t="n">
         <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="P3" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="Q3" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="R3" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03344280189632991</v>
+        <v>0.01371744794547006</v>
       </c>
       <c r="C4" t="n">
-        <v>78.56864710272589</v>
+        <v>127.7244244190858</v>
       </c>
       <c r="D4" t="n">
-        <v>168.0057210164082</v>
+        <v>256.560754717227</v>
       </c>
       <c r="E4" t="n">
-        <v>1.376350367583989e-06</v>
+        <v>1.757807321699151e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004174691746188628</v>
+        <v>0.0005606947567710258</v>
       </c>
       <c r="G4" t="n">
-        <v>4.959158337100095</v>
+        <v>5.562074969478719</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8423064917170593</v>
+        <v>1.030192511217924</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6207340287621397</v>
+        <v>0.7635776630164262</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7759203898127476</v>
+        <v>1.182220938811569</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3722020579352026</v>
+        <v>0.3321567538479046</v>
       </c>
       <c r="L4" t="n">
-        <v>1.394184881204603</v>
+        <v>1.46951811552194</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4244955476225998</v>
+        <v>0.6838389705009237</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -704,52 +704,52 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.53948237579799</v>
+        <v>56.77212805957059</v>
       </c>
       <c r="D5" t="n">
-        <v>149.5949598276812</v>
+        <v>258.3789572980186</v>
       </c>
       <c r="E5" t="n">
-        <v>1.017733100710941e-08</v>
+        <v>1.170310794846939e-08</v>
       </c>
       <c r="F5" t="n">
-        <v>1.491401691664877e-05</v>
+        <v>2.631796651243229e-05</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.053832042238883</v>
+        <v>-1.880111146215836</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1456911721670593</v>
+        <v>0.126978767973035</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.6356692354680762</v>
+        <v>-0.6999752684258627</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.019285534088266</v>
+        <v>-2.848328096243027</v>
       </c>
       <c r="N5" t="n">
         <v>5</v>
       </c>
       <c r="O5" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="P5" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="Q5" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="R5" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -762,52 +762,52 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>64.91526545022691</v>
+        <v>160.838807901548</v>
       </c>
       <c r="D6" t="n">
-        <v>229.8223034535529</v>
+        <v>478.8431597156364</v>
       </c>
       <c r="E6" t="n">
-        <v>1.874416198638664e-07</v>
+        <v>2.212343060235648e-07</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001315184618079118</v>
+        <v>0.0001610917774966956</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.175</v>
+        <v>1.3</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4772376629292264</v>
+        <v>-1.032561409311405</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3287298636637039</v>
+        <v>0.3540937211327312</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3550361327672941</v>
+        <v>0.0159400826883699</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.18160852517623</v>
+        <v>-1.693427948532149</v>
       </c>
       <c r="N6" t="n">
         <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="P6" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="Q6" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="R6" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7">
@@ -820,52 +820,52 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>86.19386971393055</v>
+        <v>232.8625857360099</v>
       </c>
       <c r="D7" t="n">
-        <v>281.7129001188222</v>
+        <v>598.2752077799867</v>
       </c>
       <c r="E7" t="n">
-        <v>5.450652381226821e-07</v>
+        <v>5.307128286637144e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002563268317745153</v>
+        <v>0.0003046712292941909</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.1580610909561451</v>
+        <v>-0.6631586384210142</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5089991719723914</v>
+        <v>0.5670082856767704</v>
       </c>
       <c r="L7" t="n">
-        <v>1.234330997075722</v>
+        <v>0.9899553405790014</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.9985614451985901</v>
+        <v>-1.386657014809106</v>
       </c>
       <c r="N7" t="n">
         <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="P7" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="Q7" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="R7" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8">
@@ -875,55 +875,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06024096385542168</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>119.1150150293602</v>
+        <v>296.6354291538013</v>
       </c>
       <c r="D8" t="n">
-        <v>416.6136763416049</v>
+        <v>803.4814959726382</v>
       </c>
       <c r="E8" t="n">
-        <v>1.208633934952263e-06</v>
+        <v>1.543025157163357e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005492370251444998</v>
+        <v>0.0005166583507296078</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.025</v>
       </c>
       <c r="H8" t="n">
-        <v>2.325</v>
+        <v>2.625</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2018718365440649</v>
+        <v>0.4192041800431859</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9016918137637571</v>
+        <v>0.84520049052679</v>
       </c>
       <c r="L8" t="n">
-        <v>2.576814170686204</v>
+        <v>2.375744657639689</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.7552771027432886</v>
+        <v>-1.098829500834534</v>
       </c>
       <c r="N8" t="n">
         <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="P8" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="Q8" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="R8" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9">
@@ -933,55 +933,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1204819277108434</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="C9" t="n">
-        <v>371.3214860880939</v>
+        <v>639.7964585894899</v>
       </c>
       <c r="D9" t="n">
-        <v>805.1859259131829</v>
+        <v>1401.434491276347</v>
       </c>
       <c r="E9" t="n">
-        <v>6.54545565297329e-06</v>
+        <v>8.744386762338906e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002656592872431298</v>
+        <v>0.003316130175781508</v>
       </c>
       <c r="G9" t="n">
-        <v>15.1</v>
+        <v>22.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.236876422217433</v>
+        <v>2.711001943175805</v>
       </c>
       <c r="K9" t="n">
-        <v>1.762174863662898</v>
+        <v>1.607586681088536</v>
       </c>
       <c r="L9" t="n">
-        <v>5.131803487045389</v>
+        <v>5.003257096949595</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5988726810763236</v>
+        <v>0.9722466631559198</v>
       </c>
       <c r="N9" t="n">
         <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>947</v>
+        <v>1114</v>
       </c>
       <c r="P9" t="n">
-        <v>1112</v>
+        <v>1349</v>
       </c>
       <c r="Q9" t="n">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="R9" t="n">
-        <v>166</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
